--- a/config_hlw/fish_3d_yutu_random_2.xlsx
+++ b/config_hlw/fish_3d_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>群鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +389,6 @@
   </si>
   <si>
     <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD32"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1170,10 +1162,10 @@
         <v>48</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1259,7 +1251,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1281,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1303,7 +1295,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1323,7 +1315,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1343,7 +1335,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1404,10 +1396,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1426,10 +1418,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1438,7 +1430,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -1448,16 +1440,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E14">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>47</v>
@@ -1468,19 +1460,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15">
-        <v>2000</v>
-      </c>
-      <c r="E15">
-        <v>4000</v>
+        <v>71</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3000</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1491,7 +1483,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="10">
         <v>3000</v>
@@ -1500,27 +1492,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="10">
-        <v>3000</v>
-      </c>
-      <c r="E17" s="10">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2262,13 +2234,13 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2277,13 +2249,13 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2292,13 +2264,13 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2307,13 +2279,13 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
